--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{66B93DDD-D200-41B9-8645-0A2A08665C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA74F3A4-DBBC-46C4-BB2D-37D1B4891353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Material</t>
-  </si>
-  <si>
-    <t>Perso</t>
   </si>
 </sst>
 </file>
@@ -394,12 +391,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -434,36 +431,36 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D2">
-        <v>1440</v>
+        <v>1344</v>
       </c>
       <c r="E2">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="D3">
-        <v>1980</v>
+        <v>1344</v>
       </c>
       <c r="E3">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
